--- a/Code/R/Magnan/PerfSearch_RF_Unbalanced_mRMR_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_Unbalanced_mRMR_comb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tenfold_Avg" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="10">
   <si>
     <t>MCC</t>
   </si>
@@ -74,9 +74,6 @@
       </rPr>
       <t>MCC</t>
     </r>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -3806,23 +3803,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="51130752"/>
-        <c:axId val="51132672"/>
+        <c:axId val="89970560"/>
+        <c:axId val="89972096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51130752"/>
+        <c:axId val="89970560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51132672"/>
+        <c:crossAx val="89972096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51132672"/>
+        <c:axId val="89972096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3830,7 +3827,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51130752"/>
+        <c:crossAx val="89970560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3843,7 +3840,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7033,23 +7030,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="69347200"/>
-        <c:axId val="69348736"/>
+        <c:axId val="90096384"/>
+        <c:axId val="90097920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69347200"/>
+        <c:axId val="90096384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69348736"/>
+        <c:crossAx val="90097920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69348736"/>
+        <c:axId val="90097920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7057,20 +7054,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69347200"/>
+        <c:crossAx val="90096384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7433,8 +7429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11616,8 +11612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11655,8 +11651,32 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2">
+        <v>530</v>
+      </c>
+      <c r="C2">
+        <v>0.83250241384432599</v>
+      </c>
+      <c r="D2">
+        <v>0.78638138285930403</v>
+      </c>
+      <c r="E2">
+        <v>0.75981873111782505</v>
+      </c>
+      <c r="F2">
+        <v>0.6875</v>
+      </c>
+      <c r="G2">
+        <v>0.81550802139037404</v>
+      </c>
+      <c r="H2">
+        <v>0.74157303370786498</v>
+      </c>
+      <c r="I2">
+        <v>0.713513513513514</v>
+      </c>
+      <c r="J2">
+        <v>0.50833823563310199</v>
       </c>
     </row>
   </sheetData>
